--- a/LECCIÓN 18 - PREGUNTAS CON ADVERBIOS DE FRECUENCIA.xlsx
+++ b/LECCIÓN 18 - PREGUNTAS CON ADVERBIOS DE FRECUENCIA.xlsx
@@ -61,7 +61,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">do you always have breakfast in your home?</t>
+    <t xml:space="preserve">do you always  have breakfast in you home?</t>
   </si>
   <si>
     <r>
@@ -85,7 +85,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">how often do you have a breakfast in you home?</t>
+    <t xml:space="preserve">how often do you have a breakfast in you house?</t>
   </si>
   <si>
     <r>
@@ -109,7 +109,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">does he drink milk often?</t>
+    <t xml:space="preserve">he drinks milk  often?</t>
   </si>
   <si>
     <r>
@@ -157,7 +157,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">goes they frecuently to the gym?</t>
+    <t xml:space="preserve"> do they frequently go to the gym ?</t>
   </si>
   <si>
     <r>
@@ -181,7 +181,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">how frequently do  they go to the gym? </t>
+    <t xml:space="preserve">how frequently do  they go to the gym?</t>
   </si>
   <si>
     <r>
@@ -205,7 +205,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">do they normally works on weekends?</t>
+    <t xml:space="preserve">does they normally work on weekends?</t>
   </si>
   <si>
     <r>
@@ -229,7 +229,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">how often do they work on weekends?</t>
+    <t xml:space="preserve">how often they working on weekends?</t>
   </si>
   <si>
     <r>
@@ -253,7 +253,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">do you study english very often?</t>
+    <t xml:space="preserve">do you study english often?</t>
   </si>
   <si>
     <r>
@@ -277,7 +277,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">how often do you study english?</t>
+    <t xml:space="preserve">how often do you study englush?</t>
   </si>
   <si>
     <r>
@@ -363,7 +363,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">they don't usually go to the movies </t>
+    <t xml:space="preserve">they don't usually go to the movies.</t>
   </si>
   <si>
     <r>
@@ -387,7 +387,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">rachel and mark frecuently play tennis on Sundays.</t>
+    <t xml:space="preserve">rachel and mark frequently plays tennis on sundays</t>
   </si>
   <si>
     <r>
@@ -1768,7 +1768,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A50" zoomScale="120" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A17" zoomScale="120" workbookViewId="0">
       <selection activeCell="C11" activeCellId="0" sqref="C11:O11"/>
     </sheetView>
   </sheetViews>
